--- a/data_year/zb/科技/产品质量省级监督抽查.xlsx
+++ b/data_year/zb/科技/产品质量省级监督抽查.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,218 +458,180 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27762</v>
+        <v>32391</v>
       </c>
       <c r="C2" t="n">
-        <v>212153</v>
+        <v>278321</v>
       </c>
       <c r="D2" t="n">
-        <v>3042</v>
+        <v>3264</v>
       </c>
       <c r="E2" t="n">
-        <v>175980</v>
+        <v>186759</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31483</v>
+        <v>24631</v>
       </c>
       <c r="C3" t="n">
-        <v>254306</v>
+        <v>296594</v>
       </c>
       <c r="D3" t="n">
-        <v>4847</v>
+        <v>4178</v>
       </c>
       <c r="E3" t="n">
-        <v>215901</v>
+        <v>210584</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32391</v>
+        <v>20354</v>
       </c>
       <c r="C4" t="n">
-        <v>278321</v>
+        <v>277223</v>
       </c>
       <c r="D4" t="n">
-        <v>3264</v>
+        <v>3522</v>
       </c>
       <c r="E4" t="n">
-        <v>186759</v>
+        <v>186700</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24631</v>
+        <v>12155</v>
       </c>
       <c r="C5" t="n">
-        <v>296594</v>
+        <v>151987</v>
       </c>
       <c r="D5" t="n">
-        <v>4178</v>
+        <v>2618</v>
       </c>
       <c r="E5" t="n">
-        <v>210584</v>
+        <v>120457</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20354</v>
+        <v>11967</v>
       </c>
       <c r="C6" t="n">
-        <v>277223</v>
+        <v>148037</v>
       </c>
       <c r="D6" t="n">
-        <v>3522</v>
+        <v>2864</v>
       </c>
       <c r="E6" t="n">
-        <v>186700</v>
+        <v>100301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12155</v>
+        <v>10552</v>
       </c>
       <c r="C7" t="n">
-        <v>151987</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2618</v>
-      </c>
+        <v>145620</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>120457</v>
+        <v>99836</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11967</v>
+        <v>8805</v>
       </c>
       <c r="C8" t="n">
-        <v>148037</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2864</v>
-      </c>
+        <v>140138</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>100301</v>
+        <v>94984</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10552</v>
+        <v>9857</v>
       </c>
       <c r="C9" t="n">
-        <v>145620</v>
+        <v>134009</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>99836</v>
+        <v>96196</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8805</v>
+        <v>13431</v>
       </c>
       <c r="C10" t="n">
-        <v>140138</v>
+        <v>206734</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>94984</v>
+        <v>151535</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9857</v>
+        <v>18409</v>
       </c>
       <c r="C11" t="n">
-        <v>134009</v>
+        <v>192171</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>96196</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>13431</v>
-      </c>
-      <c r="C12" t="n">
-        <v>206734</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>151535</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>18409</v>
-      </c>
-      <c r="C13" t="n">
-        <v>192171</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
         <v>132660</v>
       </c>
     </row>
